--- a/出席率変化の集計/files/出席率_大橋校（２年：渡邉）RPA (1).xlsx
+++ b/出席率変化の集計/files/出席率_大橋校（２年：渡邉）RPA (1).xlsx
@@ -5,35 +5,37 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19002\Documents\UiPath\ファイルの転記\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19002\Documents\UiPath\出席率変化の集計\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2年情報メディア_5月" sheetId="114" r:id="rId1"/>
     <sheet name="2年情報メディア_6月" sheetId="115" r:id="rId2"/>
     <sheet name="2年情報メディア_7月" sheetId="116" r:id="rId3"/>
-    <sheet name="2年情報メディア_8月" sheetId="118" r:id="rId4"/>
-    <sheet name="2年情報メディア_8月 " sheetId="117" r:id="rId5"/>
+    <sheet name="2年情報メディア_8月 " sheetId="117" r:id="rId4"/>
+    <sheet name="2年情報メディア_10月" sheetId="119" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2年情報メディア_10月'!$A$8:$U$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2年情報メディア_5月'!$A$8:$T$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2年情報メディア_6月'!$A$8:$U$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2年情報メディア_7月'!$A$8:$U$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2年情報メディア_8月 '!$A$8:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2年情報メディア_8月 '!$A$8:$U$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2年情報メディア_10月'!$B$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2年情報メディア_5月'!$B$1:$S$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2年情報メディア_6月'!$B$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2年情報メディア_7月'!$B$1:$T$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2年情報メディア_8月 '!$B$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2年情報メディア_8月 '!$B$1:$T$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
   <si>
     <t>学番</t>
     <phoneticPr fontId="3"/>
@@ -1728,7 +1730,201 @@
     <cellStyle name="標準 4 2" xfId="48"/>
     <cellStyle name="良い 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3624,126 +3820,126 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J22 J27 J32">
-    <cfRule type="expression" dxfId="103" priority="876">
+    <cfRule type="expression" dxfId="131" priority="876">
       <formula>G22&gt;H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J18">
-    <cfRule type="expression" dxfId="102" priority="875">
+    <cfRule type="expression" dxfId="130" priority="875">
       <formula>G10&gt;H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="101" priority="874">
+    <cfRule type="expression" dxfId="129" priority="874">
       <formula>G34&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34">
-    <cfRule type="expression" dxfId="100" priority="870">
+    <cfRule type="expression" dxfId="128" priority="870">
       <formula>AND(0.75&lt;=F34,F34&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="871">
+    <cfRule type="expression" dxfId="127" priority="871">
       <formula>AND(0.65 &lt;= F34,F34&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="872">
+    <cfRule type="expression" dxfId="126" priority="872">
       <formula>F34 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J20">
-    <cfRule type="expression" dxfId="97" priority="854">
+    <cfRule type="expression" dxfId="125" priority="854">
       <formula>G19&gt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="96" priority="853">
+    <cfRule type="expression" dxfId="124" priority="853">
       <formula>G9&gt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="95" priority="852">
+    <cfRule type="expression" dxfId="123" priority="852">
       <formula>G21&gt;H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="94" priority="851">
+    <cfRule type="expression" dxfId="122" priority="851">
       <formula>G23&gt;H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J25">
-    <cfRule type="expression" dxfId="93" priority="848">
+    <cfRule type="expression" dxfId="121" priority="848">
       <formula>G24&gt;H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="92" priority="847">
+    <cfRule type="expression" dxfId="120" priority="847">
       <formula>G26&gt;H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="91" priority="846">
+    <cfRule type="expression" dxfId="119" priority="846">
       <formula>G28&gt;H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="90" priority="845">
+    <cfRule type="expression" dxfId="118" priority="845">
       <formula>G29&gt;H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="89" priority="844">
+    <cfRule type="expression" dxfId="117" priority="844">
       <formula>G31&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="88" priority="843">
+    <cfRule type="expression" dxfId="116" priority="843">
       <formula>G33&gt;H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:O33">
-    <cfRule type="cellIs" dxfId="87" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="775" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H33">
-    <cfRule type="expression" dxfId="86" priority="431">
+    <cfRule type="expression" dxfId="114" priority="431">
       <formula>F9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="432">
+    <cfRule type="expression" dxfId="113" priority="432">
       <formula>AND(0.65 &lt;= F9,F9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="433">
+    <cfRule type="expression" dxfId="112" priority="433">
       <formula>AND(0.75&lt;=F9,F9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H33">
-    <cfRule type="expression" dxfId="83" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="434" stopIfTrue="1">
       <formula>F9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="110" priority="5">
       <formula>AND(0.75&lt;=I34,I34&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="6">
+    <cfRule type="expression" dxfId="109" priority="6">
       <formula>AND(0.65 &lt;= I34,I34&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="108" priority="7">
       <formula>I34 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I33">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>I9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>AND(0.65 &lt;= I9,I9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="105" priority="3">
       <formula>AND(0.75&lt;=I9,I9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I33">
-    <cfRule type="expression" dxfId="76" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
       <formula>I9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4652,126 +4848,126 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="K22 K27 K32">
-    <cfRule type="expression" dxfId="75" priority="28">
+    <cfRule type="expression" dxfId="103" priority="28">
       <formula>G22&gt;H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="expression" dxfId="74" priority="27">
+    <cfRule type="expression" dxfId="102" priority="27">
       <formula>G10&gt;H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="73" priority="26">
+    <cfRule type="expression" dxfId="101" priority="26">
       <formula>G34&gt;H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:I34">
-    <cfRule type="expression" dxfId="72" priority="23">
+    <cfRule type="expression" dxfId="100" priority="23">
       <formula>AND(0.75&lt;=F34,F34&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="24">
+    <cfRule type="expression" dxfId="99" priority="24">
       <formula>AND(0.65 &lt;= F34,F34&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="25">
+    <cfRule type="expression" dxfId="98" priority="25">
       <formula>F34 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K20">
-    <cfRule type="expression" dxfId="69" priority="22">
+    <cfRule type="expression" dxfId="97" priority="22">
       <formula>G19&gt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="68" priority="21">
+    <cfRule type="expression" dxfId="96" priority="21">
       <formula>G9&gt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="67" priority="20">
+    <cfRule type="expression" dxfId="95" priority="20">
       <formula>G21&gt;H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="66" priority="19">
+    <cfRule type="expression" dxfId="94" priority="19">
       <formula>G23&gt;H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:K25">
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="93" priority="18">
       <formula>G24&gt;H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="64" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>G26&gt;H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="63" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>G28&gt;H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="62" priority="15">
+    <cfRule type="expression" dxfId="90" priority="15">
       <formula>G29&gt;H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="61" priority="14">
+    <cfRule type="expression" dxfId="89" priority="14">
       <formula>G31&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="60" priority="13">
+    <cfRule type="expression" dxfId="88" priority="13">
       <formula>G33&gt;H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P33">
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:I33">
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="86" priority="8">
       <formula>F9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="85" priority="9">
       <formula>AND(0.65 &lt;= F9,F9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="84" priority="10">
       <formula>AND(0.75&lt;=F9,F9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:I33">
-    <cfRule type="expression" dxfId="55" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="11" stopIfTrue="1">
       <formula>F9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="54" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>AND(0.75&lt;=J34,J34&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="81" priority="6">
       <formula>AND(0.65 &lt;= J34,J34&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="80" priority="7">
       <formula>J34 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J33">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>J9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>AND(0.65 &lt;= J9,J9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>AND(0.75&lt;=J9,J9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J33">
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="4" stopIfTrue="1">
       <formula>J9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5585,110 +5781,110 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="K22 K27 K32">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="75" priority="28">
       <formula>G18&gt;H18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="74" priority="27">
       <formula>G10&gt;H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="45" priority="26">
+    <cfRule type="expression" dxfId="73" priority="26">
       <formula>G30&gt;H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:I30">
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>AND(0.75&lt;=F30,F30&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="71" priority="24">
       <formula>AND(0.65 &lt;= F30,F30&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="25">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>F30 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K20">
-    <cfRule type="expression" dxfId="41" priority="22">
+    <cfRule type="expression" dxfId="69" priority="22">
       <formula>G15&gt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="68" priority="21">
       <formula>G9&gt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="67" priority="20">
       <formula>G17&gt;H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="38" priority="19">
+    <cfRule type="expression" dxfId="66" priority="19">
       <formula>G19&gt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:K25">
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="65" priority="18">
       <formula>G20&gt;H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="64" priority="17">
       <formula>G22&gt;H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="35" priority="16">
+    <cfRule type="expression" dxfId="63" priority="16">
       <formula>G24&gt;H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="34" priority="15">
+    <cfRule type="expression" dxfId="62" priority="15">
       <formula>G25&gt;H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="33" priority="14">
+    <cfRule type="expression" dxfId="61" priority="14">
       <formula>G27&gt;H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="60" priority="13">
       <formula>G29&gt;H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P33">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:J29">
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>F9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>AND(0.65 &lt;= F9,F9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="56" priority="10">
       <formula>AND(0.75&lt;=F9,F9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:J29">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="11" stopIfTrue="1">
       <formula>F9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>AND(0.75&lt;=J30,J30&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>AND(0.65 &lt;= J30,J30&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>J30 &lt; 0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5699,35 +5895,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="4" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L4">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -6532,111 +6709,1049 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="K22 K27 K32">
+    <cfRule type="expression" dxfId="51" priority="24">
+      <formula>G18&gt;H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K18">
+    <cfRule type="expression" dxfId="50" priority="23">
+      <formula>G10&gt;H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="expression" dxfId="49" priority="22">
+      <formula>G30&gt;H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:I30">
+    <cfRule type="expression" dxfId="48" priority="19">
+      <formula>AND(0.75&lt;=F30,F30&lt;0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="20">
+      <formula>AND(0.65 &lt;= F30,F30&lt;0.75)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="21">
+      <formula>F30 &lt; 0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="expression" dxfId="45" priority="18">
+      <formula>G15&gt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="44" priority="17">
+      <formula>G9&gt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" dxfId="43" priority="16">
+      <formula>G17&gt;H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" dxfId="42" priority="15">
+      <formula>G19&gt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K25">
+    <cfRule type="expression" dxfId="41" priority="14">
+      <formula>G20&gt;H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="40" priority="13">
+      <formula>G22&gt;H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="expression" dxfId="39" priority="12">
+      <formula>G24&gt;H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K30">
+    <cfRule type="expression" dxfId="38" priority="11">
+      <formula>G25&gt;H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="37" priority="10">
+      <formula>G27&gt;H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="expression" dxfId="36" priority="9">
+      <formula>G29&gt;H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:P33">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:J29">
+    <cfRule type="expression" dxfId="34" priority="4">
+      <formula>F9 &lt; 0.65</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="5">
+      <formula>AND(0.65 &lt;= F9,F9&lt;0.75)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="6">
+      <formula>AND(0.75&lt;=F9,F9&lt;0.8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:J29">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+      <formula>F9 &lt; 0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>AND(0.75&lt;=J30,J30&lt;0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>AND(0.65 &lt;= J30,J30&lt;0.75)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>J30 &lt; 0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="44" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="3" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
+    <col min="13" max="16" width="2.625" style="44" customWidth="1"/>
+    <col min="17" max="17" width="3.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="2.625" style="44" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="D3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="44">
+        <f>COUNTIF(N$9:N$33,"=2")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="44">
+        <f>COUNTIF(O$9:O$33,"=2")</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="44">
+        <f>COUNTIF(P$9:P$33,"=2")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="17">
+        <v>290</v>
+      </c>
+      <c r="N4" s="44">
+        <f>COUNTIF(N$9:N$33,"=3")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="44">
+        <f>COUNTIF(O$9:O$33,"=3")</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="44">
+        <f>COUNTIF(P$9:P$33,"=3")</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="9"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>44046</v>
+      </c>
+      <c r="G8" s="42">
+        <v>44106</v>
+      </c>
+      <c r="H8" s="57">
+        <v>44113</v>
+      </c>
+      <c r="I8" s="57">
+        <v>44120</v>
+      </c>
+      <c r="J8" s="57">
+        <v>44127</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="16">
+        <f>H8</f>
+        <v>44113</v>
+      </c>
+      <c r="N8" s="44">
+        <v>4</v>
+      </c>
+      <c r="O8" s="44">
+        <v>10</v>
+      </c>
+      <c r="P8" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="68">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <v>19002</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="35" t="str">
+        <f t="shared" ref="K9:K14" si="0">IF(G9&lt;H9,$K$3,IF(G9=H9,$K$4,$K$5))</f>
+        <v>　→</v>
+      </c>
+      <c r="L9" s="18">
+        <v>3</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="R9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="65">
+        <f>IF(C10&lt;&gt;"",B9+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="27">
+        <v>19023</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>　→</v>
+      </c>
+      <c r="L10" s="19">
+        <v>69</v>
+      </c>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="R10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="65">
+        <f>IF(C11&lt;&gt;"",B9+2,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="27">
+        <v>19059</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>　→</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>　→</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="R12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65" t="str">
+        <f t="shared" ref="B13:B29" si="1">IF(C13&lt;&gt;"",B12+1,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>　→</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="R13" s="58"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>　→</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="R14" s="58"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="37" t="str">
+        <f t="shared" ref="K15:K34" si="2">IF(G11&lt;H11,$K$3,IF(G11=H11,$K$4,$K$5))</f>
+        <v>　→</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="R15" s="58"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="R17" s="52"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="R18" s="50"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="R20" s="50"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="R21" s="59"/>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="R22" s="50"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="R24" s="52"/>
+    </row>
+    <row r="25" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="51"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="R27" s="52"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="R28" s="50"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="R29" s="52"/>
+    </row>
+    <row r="30" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="25" t="e">
+        <f>AVERAGE(F9:F29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="25" t="e">
+        <f>AVERAGE(G9:G29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="25" t="e">
+        <f>AVERAGE(H9:H29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="25" t="e">
+        <f>AVERAGE(I9:I29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="25" t="e">
+        <f>AVERAGE(J9:J29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="R30" s="50"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="R31" s="52"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K32" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="11:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>　→</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34" spans="11:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="50"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A8:U8"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="K22 K27 K32">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>G18&gt;H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K18">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>G10&gt;H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>G30&gt;H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:I30">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>AND(0.75&lt;=F30,F30&lt;0.8)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>G18&gt;H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K18">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>G10&gt;H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+      <formula>AND(0.65 &lt;= F30,F30&lt;0.75)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>F30 &lt; 0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K20">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>G30&gt;H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:I30">
-    <cfRule type="expression" dxfId="20" priority="19">
-      <formula>AND(0.75&lt;=F30,F30&lt;0.8)</formula>
-    </cfRule>
+      <formula>G15&gt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>G9&gt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>AND(0.65 &lt;= F30,F30&lt;0.75)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>F30 &lt; 0.65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K20">
+      <formula>G17&gt;H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>G19&gt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K25">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>G15&gt;H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+      <formula>G20&gt;H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>G9&gt;H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+      <formula>G22&gt;H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>G17&gt;H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>G24&gt;H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K30">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>G19&gt;H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K25">
+      <formula>G25&gt;H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>G20&gt;H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+      <formula>G27&gt;H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>G22&gt;H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>G24&gt;H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>G25&gt;H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>G27&gt;H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="8" priority="9">
       <formula>G29&gt;H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:J29">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="F12:J29 F9:G11 I9:J11">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>F9 &lt; 0.65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND(0.65 &lt;= F9,F9&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(0.75&lt;=F9,F9&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:J29">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="F12:J29 F9:G11 I9:J11">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>F9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>AND(0.75&lt;=J30,J30&lt;0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(0.65 &lt;= J30,J30&lt;0.75)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>J30 &lt; 0.65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>H9 &lt; 0.65</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(0.65 &lt;= H9,H9&lt;0.75)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(0.75&lt;=H9,H9&lt;0.8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>H9 &lt; 0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
